--- a/analysis/transformation_model.xlsx
+++ b/analysis/transformation_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Logan\Desktop\Fintech Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD082998-1706-4CAD-BB68-148B5504416C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10429962-1C41-461F-A3A0-CE655A5E62FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1110" windowWidth="18750" windowHeight="15345" firstSheet="3" activeTab="6" xr2:uid="{C1C2BF17-C2DD-4344-97C6-26F41EE32113}"/>
+    <workbookView xWindow="105" yWindow="3585" windowWidth="26610" windowHeight="15345" activeTab="6" xr2:uid="{C1C2BF17-C2DD-4344-97C6-26F41EE32113}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -252,8 +252,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -305,10 +305,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,8 +319,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD94821"/>
+      <color rgb="FF33A60A"/>
+      <color rgb="FFD40A0A"/>
+      <color rgb="FF9A269D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -715,12 +731,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,14 +799,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,8 +857,8 @@
         <v>100800000</v>
       </c>
       <c r="G2" s="4">
-        <f>D2-E2</f>
-        <v>203999958</v>
+        <f>D2-F2</f>
+        <v>103200000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -863,8 +883,8 @@
         <v>35360000</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G5" si="2">D3-E3</f>
-        <v>161199932</v>
+        <f t="shared" ref="G3:G5" si="2">D3-F3</f>
+        <v>125840000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,7 +910,7 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" si="2"/>
-        <v>287499790</v>
+        <v>239200000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,7 +936,7 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" si="2"/>
-        <v>389999050</v>
+        <v>342500000</v>
       </c>
     </row>
   </sheetData>
@@ -930,12 +950,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,6 +990,7 @@
         <v>72000</v>
       </c>
       <c r="D2" s="2">
+        <f>B2*C2</f>
         <v>44640000</v>
       </c>
       <c r="E2" s="5">
@@ -984,6 +1009,7 @@
         <v>95000</v>
       </c>
       <c r="D3" s="2">
+        <f>B3*C3</f>
         <v>29450000</v>
       </c>
       <c r="E3" s="5">
@@ -1002,6 +1028,7 @@
         <v>145000</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" ref="D4:D6" si="1">B4*C4</f>
         <v>69600000</v>
       </c>
       <c r="E4" s="5">
@@ -1020,6 +1047,7 @@
         <v>110000</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="1"/>
         <v>15400000</v>
       </c>
       <c r="E5" s="5">
@@ -1038,6 +1066,7 @@
         <v>120000</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="1"/>
         <v>31200000</v>
       </c>
       <c r="E6" s="5">
@@ -1066,13 +1095,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,6 +1248,52 @@
       <c r="C11" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD94821"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD40A0A"/>
+        <color rgb="FF33A60A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1226,15 +1304,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
   </cols>
@@ -1341,7 +1419,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,6 +1581,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B15:C15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
